--- a/biology/Zoologie/Bryophryne/Bryophryne.xlsx
+++ b/biology/Zoologie/Bryophryne/Bryophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryophryne est un genre d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryophryne est un genre d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 10 espèces de ce genre sont endémiques du Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 10 espèces de ce genre sont endémiques du Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 Bryophryne abramalagae Lehr &amp; Catenazzi, 2010
 Bryophryne bakersfield Chaparro, Padial, Gutiérrez &amp; De la Riva, 2015
 Bryophryne bustamantei (Chaparro, De la Riva, Padial, Ochoa &amp; Lehr, 2007)
@@ -554,7 +570,7 @@
 Bryophryne hanssaueri Lehr &amp; Catenazzi, 2009
 Bryophryne nubilosus Lehr &amp; Catenazzi, 2008
 Bryophryne zonalis Lehr &amp; Catenazzi, 2009
-En 2017, une nouvelle espèce a été décrite (ZooKeys)[3] :
+En 2017, une nouvelle espèce a été décrite (ZooKeys) :
 Bryophryne phuyuhampatu Catenazzi, Ttito, Diaz &amp; Shepack</t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec bryon, la mousse, et de phrynos, le crapaud, en référence à l'habitat des espèces de ce genre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec bryon, la mousse, et de phrynos, le crapaud, en référence à l'habitat des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hedges, Duellman &amp; Heinicke, 2008 : New World direct-developing frogs (Anura: Terrarana): molecular phylogeny, classification, biogeography, and conservation. Zootaxa, no 1737, p. 1-182 (texte intégral).</t>
         </is>
